--- a/data-vault/data/test-suite.xlsx
+++ b/data-vault/data/test-suite.xlsx
@@ -397,56 +397,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>testCaseId</v>
+      </c>
+      <c r="B1" t="str">
         <v>id</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>action</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>selector</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>data</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>TC001</v>
+      </c>
+      <c r="B2" t="str">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v>navigate</v>
       </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
       <c r="D2" t="str">
-        <v>https://testplacementwebv1.azurewebsites.net/</v>
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>HOME_PAGE</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>TC001</v>
+      </c>
+      <c r="B3" t="str">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
+        <v>click</v>
+      </c>
+      <c r="D3" t="str">
+        <v>EMPLOYER_PORTAL_BTN</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>TC001</v>
+      </c>
+      <c r="B4" t="str">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
         <v>waitFor</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D4" t="str">
+        <v>WELCOME_HEADER</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>TC002</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <v>navigate</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>https://google.com</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>TC002</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>waitFor</v>
+      </c>
+      <c r="D6" t="str">
         <v>body</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>TC003</v>
+      </c>
+      <c r="B7" t="str">
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
+        <v>navigate</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v>HOME_PAGE</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>TC003</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2</v>
+      </c>
+      <c r="C8" t="str">
+        <v>click</v>
+      </c>
+      <c r="D8" t="str">
+        <v>EMPLOYER_PORTAL_BTN</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>TC003</v>
+      </c>
+      <c r="B9" t="str">
+        <v>3</v>
+      </c>
+      <c r="C9" t="str">
+        <v>click</v>
+      </c>
+      <c r="D9" t="str">
+        <v>EMPLOYER_LOGIN_BTN</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>TC003</v>
+      </c>
+      <c r="B10" t="str">
+        <v>4</v>
+      </c>
+      <c r="C10" t="str">
+        <v>waitFor</v>
+      </c>
+      <c r="D10" t="str">
+        <v>text=Invalid</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>TC004</v>
+      </c>
+      <c r="B11" t="str">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>LOGIN_TO_EMPLOYER_PORTAL</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data-vault/data/test-suite.xlsx
+++ b/data-vault/data/test-suite.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -580,18 +580,171 @@
         <v>1</v>
       </c>
       <c r="C11" t="str">
-        <v>LOGIN_TO_EMPLOYER_PORTAL</v>
+        <v>navigate</v>
       </c>
       <c r="D11" t="str">
         <v/>
       </c>
       <c r="E11" t="str">
+        <v>https://testplacementwebv1.azurewebsites.net/</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>TC004</v>
+      </c>
+      <c r="B12" t="str">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>click</v>
+      </c>
+      <c r="D12" t="str">
+        <v>css:a[href*='logType=EMP']</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>TC004</v>
+      </c>
+      <c r="B13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>waitFor</v>
+      </c>
+      <c r="D13" t="str">
+        <v>css:button:has-text('Employer Login')</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>TC004</v>
+      </c>
+      <c r="B14" t="str">
+        <v>4</v>
+      </c>
+      <c r="C14" t="str">
+        <v>click</v>
+      </c>
+      <c r="D14" t="str">
+        <v>css:button:has-text('Employer Login')</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>TC004</v>
+      </c>
+      <c r="B15" t="str">
+        <v>5</v>
+      </c>
+      <c r="C15" t="str">
+        <v>click</v>
+      </c>
+      <c r="D15" t="str">
+        <v>css:button:has-text('Sign in with email')</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>TC004</v>
+      </c>
+      <c r="B16" t="str">
+        <v>6</v>
+      </c>
+      <c r="C16" t="str">
+        <v>type</v>
+      </c>
+      <c r="D16" t="str">
+        <v>css:input[name='email']</v>
+      </c>
+      <c r="E16" t="str">
+        <v>oracle.tech@yopmail.com</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>TC004</v>
+      </c>
+      <c r="B17" t="str">
+        <v>7</v>
+      </c>
+      <c r="C17" t="str">
+        <v>click</v>
+      </c>
+      <c r="D17" t="str">
+        <v>css:button:has-text('Next')</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>TC004</v>
+      </c>
+      <c r="B18" t="str">
+        <v>8</v>
+      </c>
+      <c r="C18" t="str">
+        <v>type</v>
+      </c>
+      <c r="D18" t="str">
+        <v>css:input[name='password']</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Pibm@123</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>TC004</v>
+      </c>
+      <c r="B19" t="str">
+        <v>9</v>
+      </c>
+      <c r="C19" t="str">
+        <v>click</v>
+      </c>
+      <c r="D19" t="str">
+        <v>css:button:has-text('Sign In')</v>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>TC004</v>
+      </c>
+      <c r="B20" t="str">
+        <v>10</v>
+      </c>
+      <c r="C20" t="str">
+        <v>waitFor</v>
+      </c>
+      <c r="D20" t="str">
+        <v>text=Dashboard</v>
+      </c>
+      <c r="E20" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E20"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data-vault/data/test-suite.xlsx
+++ b/data-vault/data/test-suite.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,15 +407,18 @@
         <v>testCaseId</v>
       </c>
       <c r="B1" t="str">
+        <v>testCaseName</v>
+      </c>
+      <c r="C1" t="str">
         <v>id</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>action</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>selector</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>data</v>
       </c>
     </row>
@@ -424,15 +427,18 @@
         <v>TC001</v>
       </c>
       <c r="B2" t="str">
+        <v>Verify Employer Portal Navigation</v>
+      </c>
+      <c r="C2" t="str">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <v>navigate</v>
       </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
       <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
         <v>HOME_PAGE</v>
       </c>
     </row>
@@ -441,15 +447,18 @@
         <v>TC001</v>
       </c>
       <c r="B3" t="str">
+        <v>Verify Employer Portal Navigation</v>
+      </c>
+      <c r="C3" t="str">
         <v>2</v>
       </c>
-      <c r="C3" t="str">
-        <v>click</v>
-      </c>
       <c r="D3" t="str">
+        <v>click</v>
+      </c>
+      <c r="E3" t="str">
         <v>EMPLOYER_PORTAL_BTN</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v/>
       </c>
     </row>
@@ -458,15 +467,18 @@
         <v>TC001</v>
       </c>
       <c r="B4" t="str">
+        <v>Verify Employer Portal Navigation</v>
+      </c>
+      <c r="C4" t="str">
         <v>3</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <v>waitFor</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>WELCOME_HEADER</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v/>
       </c>
     </row>
@@ -475,15 +487,18 @@
         <v>TC002</v>
       </c>
       <c r="B5" t="str">
+        <v>External Site Navigation</v>
+      </c>
+      <c r="C5" t="str">
         <v>1</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <v>navigate</v>
       </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
       <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
         <v>https://google.com</v>
       </c>
     </row>
@@ -492,15 +507,18 @@
         <v>TC002</v>
       </c>
       <c r="B6" t="str">
+        <v>External Site Navigation</v>
+      </c>
+      <c r="C6" t="str">
         <v>2</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <v>waitFor</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <v>body</v>
       </c>
-      <c r="E6" t="str">
+      <c r="F6" t="str">
         <v/>
       </c>
     </row>
@@ -509,15 +527,18 @@
         <v>TC003</v>
       </c>
       <c r="B7" t="str">
+        <v>Empty Login Validation</v>
+      </c>
+      <c r="C7" t="str">
         <v>1</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <v>navigate</v>
       </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
       <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
         <v>HOME_PAGE</v>
       </c>
     </row>
@@ -526,15 +547,18 @@
         <v>TC003</v>
       </c>
       <c r="B8" t="str">
+        <v>Empty Login Validation</v>
+      </c>
+      <c r="C8" t="str">
         <v>2</v>
       </c>
-      <c r="C8" t="str">
-        <v>click</v>
-      </c>
       <c r="D8" t="str">
+        <v>click</v>
+      </c>
+      <c r="E8" t="str">
         <v>EMPLOYER_PORTAL_BTN</v>
       </c>
-      <c r="E8" t="str">
+      <c r="F8" t="str">
         <v/>
       </c>
     </row>
@@ -543,15 +567,18 @@
         <v>TC003</v>
       </c>
       <c r="B9" t="str">
+        <v>Empty Login Validation</v>
+      </c>
+      <c r="C9" t="str">
         <v>3</v>
       </c>
-      <c r="C9" t="str">
-        <v>click</v>
-      </c>
       <c r="D9" t="str">
+        <v>click</v>
+      </c>
+      <c r="E9" t="str">
         <v>EMPLOYER_LOGIN_BTN</v>
       </c>
-      <c r="E9" t="str">
+      <c r="F9" t="str">
         <v/>
       </c>
     </row>
@@ -560,15 +587,18 @@
         <v>TC003</v>
       </c>
       <c r="B10" t="str">
+        <v>Empty Login Validation</v>
+      </c>
+      <c r="C10" t="str">
         <v>4</v>
       </c>
-      <c r="C10" t="str">
+      <c r="D10" t="str">
         <v>waitFor</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <v>text=Invalid</v>
       </c>
-      <c r="E10" t="str">
+      <c r="F10" t="str">
         <v/>
       </c>
     </row>
@@ -577,15 +607,18 @@
         <v>TC004</v>
       </c>
       <c r="B11" t="str">
+        <v>Successful Employer Login</v>
+      </c>
+      <c r="C11" t="str">
         <v>1</v>
       </c>
-      <c r="C11" t="str">
+      <c r="D11" t="str">
         <v>navigate</v>
       </c>
-      <c r="D11" t="str">
-        <v/>
-      </c>
       <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
         <v>https://testplacementwebv1.azurewebsites.net/</v>
       </c>
     </row>
@@ -594,15 +627,18 @@
         <v>TC004</v>
       </c>
       <c r="B12" t="str">
+        <v>Successful Employer Login</v>
+      </c>
+      <c r="C12" t="str">
         <v>2</v>
       </c>
-      <c r="C12" t="str">
-        <v>click</v>
-      </c>
       <c r="D12" t="str">
+        <v>click</v>
+      </c>
+      <c r="E12" t="str">
         <v>css:a[href*='logType=EMP']</v>
       </c>
-      <c r="E12" t="str">
+      <c r="F12" t="str">
         <v/>
       </c>
     </row>
@@ -611,15 +647,18 @@
         <v>TC004</v>
       </c>
       <c r="B13" t="str">
+        <v>Successful Employer Login</v>
+      </c>
+      <c r="C13" t="str">
         <v>3</v>
       </c>
-      <c r="C13" t="str">
+      <c r="D13" t="str">
         <v>waitFor</v>
       </c>
-      <c r="D13" t="str">
+      <c r="E13" t="str">
         <v>css:button:has-text('Employer Login')</v>
       </c>
-      <c r="E13" t="str">
+      <c r="F13" t="str">
         <v/>
       </c>
     </row>
@@ -628,15 +667,18 @@
         <v>TC004</v>
       </c>
       <c r="B14" t="str">
+        <v>Successful Employer Login</v>
+      </c>
+      <c r="C14" t="str">
         <v>4</v>
       </c>
-      <c r="C14" t="str">
-        <v>click</v>
-      </c>
       <c r="D14" t="str">
+        <v>click</v>
+      </c>
+      <c r="E14" t="str">
         <v>css:button:has-text('Employer Login')</v>
       </c>
-      <c r="E14" t="str">
+      <c r="F14" t="str">
         <v/>
       </c>
     </row>
@@ -645,15 +687,18 @@
         <v>TC004</v>
       </c>
       <c r="B15" t="str">
+        <v>Successful Employer Login</v>
+      </c>
+      <c r="C15" t="str">
         <v>5</v>
       </c>
-      <c r="C15" t="str">
-        <v>click</v>
-      </c>
       <c r="D15" t="str">
+        <v>click</v>
+      </c>
+      <c r="E15" t="str">
         <v>css:button:has-text('Sign in with email')</v>
       </c>
-      <c r="E15" t="str">
+      <c r="F15" t="str">
         <v/>
       </c>
     </row>
@@ -662,15 +707,18 @@
         <v>TC004</v>
       </c>
       <c r="B16" t="str">
+        <v>Successful Employer Login</v>
+      </c>
+      <c r="C16" t="str">
         <v>6</v>
       </c>
-      <c r="C16" t="str">
+      <c r="D16" t="str">
         <v>type</v>
       </c>
-      <c r="D16" t="str">
+      <c r="E16" t="str">
         <v>css:input[name='email']</v>
       </c>
-      <c r="E16" t="str">
+      <c r="F16" t="str">
         <v>oracle.tech@yopmail.com</v>
       </c>
     </row>
@@ -679,15 +727,18 @@
         <v>TC004</v>
       </c>
       <c r="B17" t="str">
+        <v>Successful Employer Login</v>
+      </c>
+      <c r="C17" t="str">
         <v>7</v>
       </c>
-      <c r="C17" t="str">
-        <v>click</v>
-      </c>
       <c r="D17" t="str">
+        <v>click</v>
+      </c>
+      <c r="E17" t="str">
         <v>css:button:has-text('Next')</v>
       </c>
-      <c r="E17" t="str">
+      <c r="F17" t="str">
         <v/>
       </c>
     </row>
@@ -696,15 +747,18 @@
         <v>TC004</v>
       </c>
       <c r="B18" t="str">
+        <v>Successful Employer Login</v>
+      </c>
+      <c r="C18" t="str">
         <v>8</v>
       </c>
-      <c r="C18" t="str">
+      <c r="D18" t="str">
         <v>type</v>
       </c>
-      <c r="D18" t="str">
+      <c r="E18" t="str">
         <v>css:input[name='password']</v>
       </c>
-      <c r="E18" t="str">
+      <c r="F18" t="str">
         <v>Pibm@123</v>
       </c>
     </row>
@@ -713,15 +767,18 @@
         <v>TC004</v>
       </c>
       <c r="B19" t="str">
+        <v>Successful Employer Login</v>
+      </c>
+      <c r="C19" t="str">
         <v>9</v>
       </c>
-      <c r="C19" t="str">
-        <v>click</v>
-      </c>
       <c r="D19" t="str">
+        <v>click</v>
+      </c>
+      <c r="E19" t="str">
         <v>css:button:has-text('Sign In')</v>
       </c>
-      <c r="E19" t="str">
+      <c r="F19" t="str">
         <v/>
       </c>
     </row>
@@ -730,21 +787,684 @@
         <v>TC004</v>
       </c>
       <c r="B20" t="str">
+        <v>Successful Employer Login</v>
+      </c>
+      <c r="C20" t="str">
         <v>10</v>
       </c>
-      <c r="C20" t="str">
+      <c r="D20" t="str">
         <v>waitFor</v>
       </c>
-      <c r="D20" t="str">
+      <c r="E20" t="str">
         <v>text=Dashboard</v>
       </c>
-      <c r="E20" t="str">
-        <v/>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B21" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <v>navigate</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>https://testplacementwebv1.azurewebsites.net/</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B22" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2</v>
+      </c>
+      <c r="D22" t="str">
+        <v>click</v>
+      </c>
+      <c r="E22" t="str">
+        <v>EMPLOYER_PORTAL_BTN</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B23" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C23" t="str">
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
+        <v>click</v>
+      </c>
+      <c r="E23" t="str">
+        <v>SIGN_IN_WITH_EMAIL_BTN</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B24" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C24" t="str">
+        <v>4</v>
+      </c>
+      <c r="D24" t="str">
+        <v>type</v>
+      </c>
+      <c r="E24" t="str">
+        <v>EMAIL_INPUT</v>
+      </c>
+      <c r="F24" t="str">
+        <v>oracle.tech@yopmail.com</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B25" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C25" t="str">
+        <v>5</v>
+      </c>
+      <c r="D25" t="str">
+        <v>click</v>
+      </c>
+      <c r="E25" t="str">
+        <v>NEXT_BTN</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B26" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C26" t="str">
+        <v>6</v>
+      </c>
+      <c r="D26" t="str">
+        <v>type</v>
+      </c>
+      <c r="E26" t="str">
+        <v>PASSWORD_INPUT</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Pibm@123</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B27" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C27" t="str">
+        <v>7</v>
+      </c>
+      <c r="D27" t="str">
+        <v>click</v>
+      </c>
+      <c r="E27" t="str">
+        <v>SIGN_IN_SUBMIT_BTN</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B28" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C28" t="str">
+        <v>8</v>
+      </c>
+      <c r="D28" t="str">
+        <v>waitFor</v>
+      </c>
+      <c r="E28" t="str">
+        <v>DASHBOARD_HEADING</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B29" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C29" t="str">
+        <v>9</v>
+      </c>
+      <c r="D29" t="str">
+        <v>click</v>
+      </c>
+      <c r="E29" t="str">
+        <v>MANAGE_POSTINGS_TOGGLE</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B30" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C30" t="str">
+        <v>10</v>
+      </c>
+      <c r="D30" t="str">
+        <v>click</v>
+      </c>
+      <c r="E30" t="str">
+        <v>POST_A_JOB_MENU_LINK</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B31" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C31" t="str">
+        <v>11</v>
+      </c>
+      <c r="D31" t="str">
+        <v>type</v>
+      </c>
+      <c r="E31" t="str">
+        <v>JOB_TITLE_INPUT</v>
+      </c>
+      <c r="F31" t="str">
+        <v>demo job {{TIMESTAMP}}</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B32" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C32" t="str">
+        <v>12</v>
+      </c>
+      <c r="D32" t="str">
+        <v>select</v>
+      </c>
+      <c r="E32" t="str">
+        <v>JOB_TYPE_SELECT</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Full</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B33" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C33" t="str">
+        <v>13</v>
+      </c>
+      <c r="D33" t="str">
+        <v>select</v>
+      </c>
+      <c r="E33" t="str">
+        <v>JOB_CATEGORY_SELECT</v>
+      </c>
+      <c r="F33" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B34" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C34" t="str">
+        <v>14</v>
+      </c>
+      <c r="D34" t="str">
+        <v>select</v>
+      </c>
+      <c r="E34" t="str">
+        <v>EDUCATION_LEVEL_SELECT</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B35" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C35" t="str">
+        <v>15</v>
+      </c>
+      <c r="D35" t="str">
+        <v>type</v>
+      </c>
+      <c r="E35" t="str">
+        <v>MIN_SALARY_INPUT</v>
+      </c>
+      <c r="F35" t="str">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B36" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C36" t="str">
+        <v>16</v>
+      </c>
+      <c r="D36" t="str">
+        <v>type</v>
+      </c>
+      <c r="E36" t="str">
+        <v>MAX_SALARY_INPUT</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B37" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C37" t="str">
+        <v>17</v>
+      </c>
+      <c r="D37" t="str">
+        <v>select</v>
+      </c>
+      <c r="E37" t="str">
+        <v>MIN_EXP_SELECT</v>
+      </c>
+      <c r="F37" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B38" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C38" t="str">
+        <v>18</v>
+      </c>
+      <c r="D38" t="str">
+        <v>select</v>
+      </c>
+      <c r="E38" t="str">
+        <v>MAX_EXP_SELECT</v>
+      </c>
+      <c r="F38" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B39" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C39" t="str">
+        <v>19</v>
+      </c>
+      <c r="D39" t="str">
+        <v>click</v>
+      </c>
+      <c r="E39" t="str">
+        <v>CITY_SELECT2_CONTAINER</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B40" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C40" t="str">
+        <v>20</v>
+      </c>
+      <c r="D40" t="str">
+        <v>type</v>
+      </c>
+      <c r="E40" t="str">
+        <v>CITY_SELECT2_INPUT</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Kolkata</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B41" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C41" t="str">
+        <v>21</v>
+      </c>
+      <c r="D41" t="str">
+        <v>click</v>
+      </c>
+      <c r="E41" t="str">
+        <v>SELECT2_OPTION_KOLKATA</v>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B42" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C42" t="str">
+        <v>22</v>
+      </c>
+      <c r="D42" t="str">
+        <v>click</v>
+      </c>
+      <c r="E42" t="str">
+        <v>SKILLS_SELECT2_CONTAINER</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B43" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C43" t="str">
+        <v>23</v>
+      </c>
+      <c r="D43" t="str">
+        <v>type</v>
+      </c>
+      <c r="E43" t="str">
+        <v>SKILLS_SELECT2_INPUT</v>
+      </c>
+      <c r="F43" t="str">
+        <v>2D ANIMATION</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B44" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C44" t="str">
+        <v>24</v>
+      </c>
+      <c r="D44" t="str">
+        <v>press</v>
+      </c>
+      <c r="E44" t="str">
+        <v>SKILLS_SELECT2_INPUT</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Enter</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B45" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C45" t="str">
+        <v>25</v>
+      </c>
+      <c r="D45" t="str">
+        <v>js_eval</v>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v>CKEDITOR.instances.jobDescription.setData('This is a comprehensive job description for the demo job posting. It needs to be at least 100 characters long to satisfy the front-end validation requirements of the application. We are looking for talented individuals to join our growing team and contribute to exciting projects in the tech industry. Apply now to be part of our success story!')</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B46" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C46" t="str">
+        <v>26</v>
+      </c>
+      <c r="D46" t="str">
+        <v>type</v>
+      </c>
+      <c r="E46" t="str">
+        <v>POSITIONS_INPUT</v>
+      </c>
+      <c r="F46" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B47" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C47" t="str">
+        <v>27</v>
+      </c>
+      <c r="D47" t="str">
+        <v>click</v>
+      </c>
+      <c r="E47" t="str">
+        <v>START_DATE_INPUT</v>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B48" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C48" t="str">
+        <v>28</v>
+      </c>
+      <c r="D48" t="str">
+        <v>click</v>
+      </c>
+      <c r="E48" t="str">
+        <v>CALENDAR_DAY_24</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B49" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C49" t="str">
+        <v>29</v>
+      </c>
+      <c r="D49" t="str">
+        <v>click</v>
+      </c>
+      <c r="E49" t="str">
+        <v>END_DATE_INPUT</v>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B50" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C50" t="str">
+        <v>30</v>
+      </c>
+      <c r="D50" t="str">
+        <v>click</v>
+      </c>
+      <c r="E50" t="str">
+        <v>CALENDAR_DAY_31</v>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B51" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C51" t="str">
+        <v>31</v>
+      </c>
+      <c r="D51" t="str">
+        <v>click</v>
+      </c>
+      <c r="E51" t="str">
+        <v>SUBMIT_JOB_BTN</v>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B52" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C52" t="str">
+        <v>32</v>
+      </c>
+      <c r="D52" t="str">
+        <v>click</v>
+      </c>
+      <c r="E52" t="str">
+        <v>NO_SHOW_LIST_BTN</v>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>TC005</v>
+      </c>
+      <c r="B53" t="str">
+        <v>End-to-End Job Posting (Kolkata)</v>
+      </c>
+      <c r="C53" t="str">
+        <v>33</v>
+      </c>
+      <c r="D53" t="str">
+        <v>waitFor</v>
+      </c>
+      <c r="E53" t="str">
+        <v>LATEST_JOB_TITLE</v>
+      </c>
+      <c r="F53" t="str">
+        <v>text=demo job {{TIMESTAMP}}</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F53"/>
   </ignoredErrors>
 </worksheet>
 </file>